--- a/exported_dfs/107120-HIP United States_combined.xlsx
+++ b/exported_dfs/107120-HIP United States_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -31,13 +31,7 @@
     <t>Act Orders Final Rev</t>
   </si>
   <si>
-    <t>Fcst Stat Prelim Rev_Kind_1</t>
-  </si>
-  <si>
-    <t>Fcst Stat Prelim Rev_Kind_2</t>
-  </si>
-  <si>
-    <t>Fcst Stat Prelim Rev_Kind_800</t>
+    <t>Fcst Stat Prelim Rev_permutation_1</t>
   </si>
   <si>
     <t>End of History</t>
@@ -414,13 +408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,22 +439,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>44501</v>
@@ -469,15 +457,15 @@
         <v>15154</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>44531</v>
@@ -488,22 +476,16 @@
       <c r="F3">
         <v>8549</v>
       </c>
-      <c r="G3">
-        <v>8549</v>
-      </c>
-      <c r="H3">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>44562</v>
@@ -514,22 +496,16 @@
       <c r="F4">
         <v>8549</v>
       </c>
-      <c r="G4">
-        <v>8549</v>
-      </c>
-      <c r="H4">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>44593</v>
@@ -540,22 +516,16 @@
       <c r="F5">
         <v>8549</v>
       </c>
-      <c r="G5">
-        <v>8549</v>
-      </c>
-      <c r="H5">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>44621</v>
@@ -566,22 +536,16 @@
       <c r="F6">
         <v>8549</v>
       </c>
-      <c r="G6">
-        <v>8549</v>
-      </c>
-      <c r="H6">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>44652</v>
@@ -592,22 +556,16 @@
       <c r="F7">
         <v>8549</v>
       </c>
-      <c r="G7">
-        <v>8549</v>
-      </c>
-      <c r="H7">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>44682</v>
@@ -618,22 +576,16 @@
       <c r="F8">
         <v>8549</v>
       </c>
-      <c r="G8">
-        <v>8549</v>
-      </c>
-      <c r="H8">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>44713</v>
@@ -644,22 +596,16 @@
       <c r="F9">
         <v>8549</v>
       </c>
-      <c r="G9">
-        <v>8549</v>
-      </c>
-      <c r="H9">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>44743</v>
@@ -670,22 +616,16 @@
       <c r="F10">
         <v>8549</v>
       </c>
-      <c r="G10">
-        <v>8549</v>
-      </c>
-      <c r="H10">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>44774</v>
@@ -696,22 +636,16 @@
       <c r="F11">
         <v>8549</v>
       </c>
-      <c r="G11">
-        <v>8549</v>
-      </c>
-      <c r="H11">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
         <v>44805</v>
@@ -722,22 +656,16 @@
       <c r="F12">
         <v>8549</v>
       </c>
-      <c r="G12">
-        <v>8549</v>
-      </c>
-      <c r="H12">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>44835</v>
@@ -748,22 +676,16 @@
       <c r="F13">
         <v>8549</v>
       </c>
-      <c r="G13">
-        <v>8549</v>
-      </c>
-      <c r="H13">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>44866</v>
@@ -774,22 +696,16 @@
       <c r="F14">
         <v>9412</v>
       </c>
-      <c r="G14">
-        <v>9412</v>
-      </c>
-      <c r="H14">
-        <v>9412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>44896</v>
@@ -800,22 +716,16 @@
       <c r="F15">
         <v>10848</v>
       </c>
-      <c r="G15">
-        <v>10848</v>
-      </c>
-      <c r="H15">
-        <v>10848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
         <v>44927</v>
@@ -826,22 +736,16 @@
       <c r="F16">
         <v>12260</v>
       </c>
-      <c r="G16">
-        <v>12260</v>
-      </c>
-      <c r="H16">
-        <v>12260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>44958</v>
@@ -852,22 +756,16 @@
       <c r="F17">
         <v>13185</v>
       </c>
-      <c r="G17">
-        <v>13185</v>
-      </c>
-      <c r="H17">
-        <v>13185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <v>44986</v>
@@ -878,22 +776,16 @@
       <c r="F18">
         <v>13831</v>
       </c>
-      <c r="G18">
-        <v>13831</v>
-      </c>
-      <c r="H18">
-        <v>13831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>45017</v>
@@ -904,22 +796,16 @@
       <c r="F19">
         <v>14430</v>
       </c>
-      <c r="G19">
-        <v>14430</v>
-      </c>
-      <c r="H19">
-        <v>14430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <v>45047</v>
@@ -930,22 +816,16 @@
       <c r="F20">
         <v>14996</v>
       </c>
-      <c r="G20">
-        <v>14996</v>
-      </c>
-      <c r="H20">
-        <v>14996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
         <v>45078</v>
@@ -956,22 +836,16 @@
       <c r="F21">
         <v>15632</v>
       </c>
-      <c r="G21">
-        <v>15632</v>
-      </c>
-      <c r="H21">
-        <v>15632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
         <v>45108</v>
@@ -982,22 +856,16 @@
       <c r="F22">
         <v>16354</v>
       </c>
-      <c r="G22">
-        <v>16354</v>
-      </c>
-      <c r="H22">
-        <v>16354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>45139</v>
@@ -1008,22 +876,16 @@
       <c r="F23">
         <v>17036</v>
       </c>
-      <c r="G23">
-        <v>17036</v>
-      </c>
-      <c r="H23">
-        <v>17036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <v>45170</v>
@@ -1034,22 +896,16 @@
       <c r="F24">
         <v>17803</v>
       </c>
-      <c r="G24">
-        <v>17803</v>
-      </c>
-      <c r="H24">
-        <v>17803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>45200</v>
@@ -1060,22 +916,16 @@
       <c r="F25">
         <v>18558</v>
       </c>
-      <c r="G25">
-        <v>18558</v>
-      </c>
-      <c r="H25">
-        <v>18558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>45231</v>
@@ -1086,22 +936,16 @@
       <c r="F26">
         <v>18600</v>
       </c>
-      <c r="G26">
-        <v>18600</v>
-      </c>
-      <c r="H26">
-        <v>18600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>45261</v>
@@ -1112,22 +956,16 @@
       <c r="F27">
         <v>19432</v>
       </c>
-      <c r="G27">
-        <v>19432</v>
-      </c>
-      <c r="H27">
-        <v>19432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>45292</v>
@@ -1138,22 +976,16 @@
       <c r="F28">
         <v>19540</v>
       </c>
-      <c r="G28">
-        <v>19540</v>
-      </c>
-      <c r="H28">
-        <v>19540</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
         <v>45323</v>
@@ -1164,22 +996,16 @@
       <c r="F29">
         <v>20211</v>
       </c>
-      <c r="G29">
-        <v>20211</v>
-      </c>
-      <c r="H29">
-        <v>20211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
         <v>45352</v>
@@ -1190,22 +1016,16 @@
       <c r="F30">
         <v>20110</v>
       </c>
-      <c r="G30">
-        <v>20110</v>
-      </c>
-      <c r="H30">
-        <v>20110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
         <v>45383</v>
@@ -1216,22 +1036,16 @@
       <c r="F31">
         <v>20824</v>
       </c>
-      <c r="G31">
-        <v>20824</v>
-      </c>
-      <c r="H31">
-        <v>20824</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
         <v>45413</v>
@@ -1242,22 +1056,16 @@
       <c r="F32">
         <v>20789</v>
       </c>
-      <c r="G32">
-        <v>20789</v>
-      </c>
-      <c r="H32">
-        <v>20789</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
         <v>45444</v>
@@ -1268,22 +1076,16 @@
       <c r="F33">
         <v>21529</v>
       </c>
-      <c r="G33">
-        <v>21529</v>
-      </c>
-      <c r="H33">
-        <v>21529</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2">
         <v>45474</v>
@@ -1294,25 +1096,19 @@
       <c r="F34">
         <v>21479</v>
       </c>
-      <c r="G34">
-        <v>21479</v>
-      </c>
       <c r="H34">
-        <v>21479</v>
-      </c>
-      <c r="J34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
         <v>45505</v>
@@ -1323,22 +1119,16 @@
       <c r="F35">
         <v>22204</v>
       </c>
-      <c r="G35">
-        <v>22204</v>
-      </c>
-      <c r="H35">
-        <v>22204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2">
         <v>45536</v>
@@ -1349,25 +1139,19 @@
       <c r="F36">
         <v>22186</v>
       </c>
-      <c r="G36">
-        <v>22186</v>
-      </c>
       <c r="H36">
-        <v>22186</v>
-      </c>
-      <c r="J36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
         <v>45566</v>
@@ -1378,22 +1162,16 @@
       <c r="F37">
         <v>22903</v>
       </c>
-      <c r="G37">
-        <v>22903</v>
-      </c>
-      <c r="H37">
-        <v>22903</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2">
         <v>45597</v>
@@ -1405,24 +1183,18 @@
         <v>22957</v>
       </c>
       <c r="G38">
-        <v>22957</v>
-      </c>
-      <c r="H38">
-        <v>22957</v>
-      </c>
-      <c r="I38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2">
         <v>45627</v>
@@ -1430,22 +1202,16 @@
       <c r="F39">
         <v>22957</v>
       </c>
-      <c r="G39">
-        <v>22957</v>
-      </c>
-      <c r="H39">
-        <v>22957</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2">
         <v>45658</v>
@@ -1453,22 +1219,16 @@
       <c r="F40">
         <v>23697</v>
       </c>
-      <c r="G40">
-        <v>23697</v>
-      </c>
-      <c r="H40">
-        <v>23697</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
         <v>45689</v>
@@ -1476,22 +1236,16 @@
       <c r="F41">
         <v>23701</v>
       </c>
-      <c r="G41">
-        <v>23701</v>
-      </c>
-      <c r="H41">
-        <v>23701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2">
         <v>45717</v>
@@ -1499,22 +1253,16 @@
       <c r="F42">
         <v>23702</v>
       </c>
-      <c r="G42">
-        <v>23702</v>
-      </c>
-      <c r="H42">
-        <v>23702</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2">
         <v>45748</v>
@@ -1522,22 +1270,16 @@
       <c r="F43">
         <v>24429</v>
       </c>
-      <c r="G43">
-        <v>24429</v>
-      </c>
-      <c r="H43">
-        <v>24429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2">
         <v>45778</v>
@@ -1545,22 +1287,16 @@
       <c r="F44">
         <v>24430</v>
       </c>
-      <c r="G44">
-        <v>24430</v>
-      </c>
-      <c r="H44">
-        <v>24430</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2">
         <v>45809</v>
@@ -1568,22 +1304,16 @@
       <c r="F45">
         <v>24430</v>
       </c>
-      <c r="G45">
-        <v>24430</v>
-      </c>
-      <c r="H45">
-        <v>24430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2">
         <v>45839</v>
@@ -1591,22 +1321,16 @@
       <c r="F46">
         <v>25148</v>
       </c>
-      <c r="G46">
-        <v>25148</v>
-      </c>
-      <c r="H46">
-        <v>25148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2">
         <v>45870</v>
@@ -1614,22 +1338,16 @@
       <c r="F47">
         <v>25149</v>
       </c>
-      <c r="G47">
-        <v>25149</v>
-      </c>
-      <c r="H47">
-        <v>25149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
         <v>45901</v>
@@ -1637,22 +1355,16 @@
       <c r="F48">
         <v>25149</v>
       </c>
-      <c r="G48">
-        <v>25149</v>
-      </c>
-      <c r="H48">
-        <v>25149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2">
         <v>45931</v>
@@ -1660,22 +1372,16 @@
       <c r="F49">
         <v>25860</v>
       </c>
-      <c r="G49">
-        <v>25860</v>
-      </c>
-      <c r="H49">
-        <v>25860</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2">
         <v>45962</v>
@@ -1683,22 +1389,16 @@
       <c r="F50">
         <v>25860</v>
       </c>
-      <c r="G50">
-        <v>25860</v>
-      </c>
-      <c r="H50">
-        <v>25860</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" s="2">
         <v>45992</v>
@@ -1706,22 +1406,16 @@
       <c r="F51">
         <v>25860</v>
       </c>
-      <c r="G51">
-        <v>25860</v>
-      </c>
-      <c r="H51">
-        <v>25860</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2">
         <v>46023</v>
@@ -1729,22 +1423,16 @@
       <c r="F52">
         <v>25860</v>
       </c>
-      <c r="G52">
-        <v>25860</v>
-      </c>
-      <c r="H52">
-        <v>25860</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2">
         <v>46054</v>
@@ -1752,22 +1440,16 @@
       <c r="F53">
         <v>26564</v>
       </c>
-      <c r="G53">
-        <v>26564</v>
-      </c>
-      <c r="H53">
-        <v>26564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2">
         <v>46082</v>
@@ -1775,22 +1457,16 @@
       <c r="F54">
         <v>26564</v>
       </c>
-      <c r="G54">
-        <v>26564</v>
-      </c>
-      <c r="H54">
-        <v>26564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D55" s="2">
         <v>46113</v>
@@ -1798,22 +1474,16 @@
       <c r="F55">
         <v>26564</v>
       </c>
-      <c r="G55">
-        <v>26564</v>
-      </c>
-      <c r="H55">
-        <v>26564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2">
         <v>46143</v>
@@ -1821,22 +1491,16 @@
       <c r="F56">
         <v>26564</v>
       </c>
-      <c r="G56">
-        <v>26564</v>
-      </c>
-      <c r="H56">
-        <v>26564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
         <v>46174</v>
@@ -1844,22 +1508,16 @@
       <c r="F57">
         <v>27262</v>
       </c>
-      <c r="G57">
-        <v>27262</v>
-      </c>
-      <c r="H57">
-        <v>27262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
         <v>46204</v>
@@ -1867,22 +1525,16 @@
       <c r="F58">
         <v>27262</v>
       </c>
-      <c r="G58">
-        <v>27262</v>
-      </c>
-      <c r="H58">
-        <v>27262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2">
         <v>46235</v>
@@ -1890,22 +1542,16 @@
       <c r="F59">
         <v>27262</v>
       </c>
-      <c r="G59">
-        <v>27262</v>
-      </c>
-      <c r="H59">
-        <v>27262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2">
         <v>46266</v>
@@ -1913,22 +1559,16 @@
       <c r="F60">
         <v>27262</v>
       </c>
-      <c r="G60">
-        <v>27262</v>
-      </c>
-      <c r="H60">
-        <v>27262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2">
         <v>46296</v>
@@ -1936,22 +1576,16 @@
       <c r="F61">
         <v>27952</v>
       </c>
-      <c r="G61">
-        <v>27952</v>
-      </c>
-      <c r="H61">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
         <v>46327</v>
@@ -1959,22 +1593,16 @@
       <c r="F62">
         <v>27952</v>
       </c>
-      <c r="G62">
-        <v>27952</v>
-      </c>
-      <c r="H62">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2">
         <v>46357</v>
@@ -1982,22 +1610,16 @@
       <c r="F63">
         <v>27952</v>
       </c>
-      <c r="G63">
-        <v>27952</v>
-      </c>
-      <c r="H63">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
         <v>46388</v>
@@ -2005,22 +1627,16 @@
       <c r="F64">
         <v>27952</v>
       </c>
-      <c r="G64">
-        <v>27952</v>
-      </c>
-      <c r="H64">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2">
         <v>46419</v>
@@ -2028,22 +1644,16 @@
       <c r="F65">
         <v>27952</v>
       </c>
-      <c r="G65">
-        <v>27952</v>
-      </c>
-      <c r="H65">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2">
         <v>46447</v>
@@ -2051,22 +1661,16 @@
       <c r="F66">
         <v>27952</v>
       </c>
-      <c r="G66">
-        <v>27952</v>
-      </c>
-      <c r="H66">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2">
         <v>46478</v>
@@ -2074,22 +1678,16 @@
       <c r="F67">
         <v>28635</v>
       </c>
-      <c r="G67">
-        <v>28635</v>
-      </c>
-      <c r="H67">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2">
         <v>46508</v>
@@ -2097,22 +1695,16 @@
       <c r="F68">
         <v>28635</v>
       </c>
-      <c r="G68">
-        <v>28635</v>
-      </c>
-      <c r="H68">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2">
         <v>46539</v>
@@ -2120,22 +1712,16 @@
       <c r="F69">
         <v>28635</v>
       </c>
-      <c r="G69">
-        <v>28635</v>
-      </c>
-      <c r="H69">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
         <v>46569</v>
@@ -2143,22 +1729,16 @@
       <c r="F70">
         <v>28635</v>
       </c>
-      <c r="G70">
-        <v>28635</v>
-      </c>
-      <c r="H70">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2">
         <v>46600</v>
@@ -2166,22 +1746,16 @@
       <c r="F71">
         <v>28635</v>
       </c>
-      <c r="G71">
-        <v>28635</v>
-      </c>
-      <c r="H71">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2">
         <v>46631</v>
@@ -2189,22 +1763,16 @@
       <c r="F72">
         <v>28635</v>
       </c>
-      <c r="G72">
-        <v>28635</v>
-      </c>
-      <c r="H72">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
         <v>46661</v>
@@ -2212,22 +1780,16 @@
       <c r="F73">
         <v>28635</v>
       </c>
-      <c r="G73">
-        <v>28635</v>
-      </c>
-      <c r="H73">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2">
         <v>46692</v>
@@ -2235,22 +1797,16 @@
       <c r="F74">
         <v>28635</v>
       </c>
-      <c r="G74">
-        <v>28635</v>
-      </c>
-      <c r="H74">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2">
         <v>46722</v>
@@ -2258,33 +1814,21 @@
       <c r="F75">
         <v>8549</v>
       </c>
-      <c r="G75">
-        <v>8549</v>
-      </c>
-      <c r="H75">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D76" s="2">
         <v>46753</v>
       </c>
       <c r="F76">
-        <v>8549</v>
-      </c>
-      <c r="G76">
-        <v>8549</v>
-      </c>
-      <c r="H76">
         <v>8549</v>
       </c>
     </row>

--- a/exported_dfs/107120-HIP United States_combined.xlsx
+++ b/exported_dfs/107120-HIP United States_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="17">
   <si>
     <t>Item</t>
   </si>
@@ -31,7 +31,25 @@
     <t>Act Orders Final Rev</t>
   </si>
   <si>
-    <t>Fcst Stat Prelim Rev_permutation_1</t>
+    <t>Fcst Stat Prelim Rev_FitValidationSensitivity_1</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_FitValidationSensitivity_1.7</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_ForecastValidationSensitivity_4.5</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_ForecastValidationSensitivity_5</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_OutlierSensitivity_3</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_OutliersPercent_5</t>
+  </si>
+  <si>
+    <t>Fcst Stat Prelim Rev_EnableNonNegRegr_1</t>
   </si>
   <si>
     <t>End of History</t>
@@ -408,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,16 +457,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>44501</v>
@@ -457,15 +493,15 @@
         <v>15154</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>44531</v>
@@ -474,18 +510,36 @@
         <v>19571</v>
       </c>
       <c r="F3">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G3">
+        <v>11542</v>
+      </c>
+      <c r="H3">
+        <v>8498</v>
+      </c>
+      <c r="I3">
+        <v>8498</v>
+      </c>
+      <c r="J3">
+        <v>11542</v>
+      </c>
+      <c r="K3">
+        <v>12230</v>
+      </c>
+      <c r="L3">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>44562</v>
@@ -494,18 +548,36 @@
         <v>12230</v>
       </c>
       <c r="F4">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G4">
+        <v>11542</v>
+      </c>
+      <c r="H4">
+        <v>8498</v>
+      </c>
+      <c r="I4">
+        <v>8498</v>
+      </c>
+      <c r="J4">
+        <v>11542</v>
+      </c>
+      <c r="K4">
+        <v>12230</v>
+      </c>
+      <c r="L4">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>44593</v>
@@ -514,18 +586,36 @@
         <v>13406</v>
       </c>
       <c r="F5">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G5">
+        <v>11542</v>
+      </c>
+      <c r="H5">
+        <v>8498</v>
+      </c>
+      <c r="I5">
+        <v>8498</v>
+      </c>
+      <c r="J5">
+        <v>11542</v>
+      </c>
+      <c r="K5">
+        <v>12230</v>
+      </c>
+      <c r="L5">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>44621</v>
@@ -534,18 +624,36 @@
         <v>15195</v>
       </c>
       <c r="F6">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G6">
+        <v>11542</v>
+      </c>
+      <c r="H6">
+        <v>8498</v>
+      </c>
+      <c r="I6">
+        <v>8498</v>
+      </c>
+      <c r="J6">
+        <v>11542</v>
+      </c>
+      <c r="K6">
+        <v>12230</v>
+      </c>
+      <c r="L6">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>44652</v>
@@ -554,18 +662,36 @@
         <v>14184</v>
       </c>
       <c r="F7">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G7">
+        <v>11542</v>
+      </c>
+      <c r="H7">
+        <v>8498</v>
+      </c>
+      <c r="I7">
+        <v>8498</v>
+      </c>
+      <c r="J7">
+        <v>11542</v>
+      </c>
+      <c r="K7">
+        <v>12230</v>
+      </c>
+      <c r="L7">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>44682</v>
@@ -574,18 +700,36 @@
         <v>13691</v>
       </c>
       <c r="F8">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G8">
+        <v>11542</v>
+      </c>
+      <c r="H8">
+        <v>8498</v>
+      </c>
+      <c r="I8">
+        <v>8498</v>
+      </c>
+      <c r="J8">
+        <v>11542</v>
+      </c>
+      <c r="K8">
+        <v>12230</v>
+      </c>
+      <c r="L8">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>44713</v>
@@ -594,18 +738,36 @@
         <v>14916</v>
       </c>
       <c r="F9">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G9">
+        <v>11542</v>
+      </c>
+      <c r="H9">
+        <v>8498</v>
+      </c>
+      <c r="I9">
+        <v>8498</v>
+      </c>
+      <c r="J9">
+        <v>11542</v>
+      </c>
+      <c r="K9">
+        <v>12230</v>
+      </c>
+      <c r="L9">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>44743</v>
@@ -614,18 +776,36 @@
         <v>13955</v>
       </c>
       <c r="F10">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G10">
+        <v>11542</v>
+      </c>
+      <c r="H10">
+        <v>8498</v>
+      </c>
+      <c r="I10">
+        <v>8498</v>
+      </c>
+      <c r="J10">
+        <v>11542</v>
+      </c>
+      <c r="K10">
+        <v>12230</v>
+      </c>
+      <c r="L10">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>44774</v>
@@ -634,18 +814,36 @@
         <v>15300</v>
       </c>
       <c r="F11">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G11">
+        <v>11542</v>
+      </c>
+      <c r="H11">
+        <v>8498</v>
+      </c>
+      <c r="I11">
+        <v>8498</v>
+      </c>
+      <c r="J11">
+        <v>11542</v>
+      </c>
+      <c r="K11">
+        <v>12230</v>
+      </c>
+      <c r="L11">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>44805</v>
@@ -654,18 +852,36 @@
         <v>16397</v>
       </c>
       <c r="F12">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G12">
+        <v>11542</v>
+      </c>
+      <c r="H12">
+        <v>8498</v>
+      </c>
+      <c r="I12">
+        <v>8498</v>
+      </c>
+      <c r="J12">
+        <v>11542</v>
+      </c>
+      <c r="K12">
+        <v>12230</v>
+      </c>
+      <c r="L12">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <v>44835</v>
@@ -674,18 +890,36 @@
         <v>16970</v>
       </c>
       <c r="F13">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>11542</v>
+      </c>
+      <c r="G13">
+        <v>11542</v>
+      </c>
+      <c r="H13">
+        <v>8498</v>
+      </c>
+      <c r="I13">
+        <v>8498</v>
+      </c>
+      <c r="J13">
+        <v>11542</v>
+      </c>
+      <c r="K13">
+        <v>12230</v>
+      </c>
+      <c r="L13">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>44866</v>
@@ -694,18 +928,36 @@
         <v>19322</v>
       </c>
       <c r="F14">
-        <v>9412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12200</v>
+      </c>
+      <c r="G14">
+        <v>12200</v>
+      </c>
+      <c r="H14">
+        <v>9365</v>
+      </c>
+      <c r="I14">
+        <v>9365</v>
+      </c>
+      <c r="J14">
+        <v>12200</v>
+      </c>
+      <c r="K14">
+        <v>12848</v>
+      </c>
+      <c r="L14">
+        <v>12848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
         <v>44896</v>
@@ -714,18 +966,36 @@
         <v>24217</v>
       </c>
       <c r="F15">
-        <v>10848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>13763</v>
+      </c>
+      <c r="G15">
+        <v>13763</v>
+      </c>
+      <c r="H15">
+        <v>10899</v>
+      </c>
+      <c r="I15">
+        <v>10899</v>
+      </c>
+      <c r="J15">
+        <v>13763</v>
+      </c>
+      <c r="K15">
+        <v>13459</v>
+      </c>
+      <c r="L15">
+        <v>13459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <v>44927</v>
@@ -734,18 +1004,36 @@
         <v>16171</v>
       </c>
       <c r="F16">
-        <v>12260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>15294</v>
+      </c>
+      <c r="G16">
+        <v>15294</v>
+      </c>
+      <c r="H16">
+        <v>12408</v>
+      </c>
+      <c r="I16">
+        <v>12408</v>
+      </c>
+      <c r="J16">
+        <v>15294</v>
+      </c>
+      <c r="K16">
+        <v>14061</v>
+      </c>
+      <c r="L16">
+        <v>14061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
         <v>44958</v>
@@ -754,18 +1042,36 @@
         <v>15452</v>
       </c>
       <c r="F17">
-        <v>13185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>16060</v>
+      </c>
+      <c r="G17">
+        <v>16060</v>
+      </c>
+      <c r="H17">
+        <v>13354</v>
+      </c>
+      <c r="I17">
+        <v>13354</v>
+      </c>
+      <c r="J17">
+        <v>16060</v>
+      </c>
+      <c r="K17">
+        <v>14657</v>
+      </c>
+      <c r="L17">
+        <v>14657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
         <v>44986</v>
@@ -774,18 +1080,36 @@
         <v>18316</v>
       </c>
       <c r="F18">
-        <v>13831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>16391</v>
+      </c>
+      <c r="G18">
+        <v>16391</v>
+      </c>
+      <c r="H18">
+        <v>13981</v>
+      </c>
+      <c r="I18">
+        <v>13981</v>
+      </c>
+      <c r="J18">
+        <v>16391</v>
+      </c>
+      <c r="K18">
+        <v>15244</v>
+      </c>
+      <c r="L18">
+        <v>15244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
         <v>45017</v>
@@ -794,18 +1118,36 @@
         <v>16363</v>
       </c>
       <c r="F19">
-        <v>14430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>16650</v>
+      </c>
+      <c r="G19">
+        <v>16650</v>
+      </c>
+      <c r="H19">
+        <v>14555</v>
+      </c>
+      <c r="I19">
+        <v>14555</v>
+      </c>
+      <c r="J19">
+        <v>16650</v>
+      </c>
+      <c r="K19">
+        <v>15823</v>
+      </c>
+      <c r="L19">
+        <v>15823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <v>45047</v>
@@ -814,18 +1156,36 @@
         <v>17320</v>
       </c>
       <c r="F20">
-        <v>14996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>16861</v>
+      </c>
+      <c r="G20">
+        <v>16861</v>
+      </c>
+      <c r="H20">
+        <v>15092</v>
+      </c>
+      <c r="I20">
+        <v>15092</v>
+      </c>
+      <c r="J20">
+        <v>16861</v>
+      </c>
+      <c r="K20">
+        <v>16395</v>
+      </c>
+      <c r="L20">
+        <v>16395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
         <v>45078</v>
@@ -834,18 +1194,36 @@
         <v>18960</v>
       </c>
       <c r="F21">
-        <v>15632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>17186</v>
+      </c>
+      <c r="G21">
+        <v>17186</v>
+      </c>
+      <c r="H21">
+        <v>15714</v>
+      </c>
+      <c r="I21">
+        <v>15714</v>
+      </c>
+      <c r="J21">
+        <v>17186</v>
+      </c>
+      <c r="K21">
+        <v>16959</v>
+      </c>
+      <c r="L21">
+        <v>16959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <v>45108</v>
@@ -854,18 +1232,36 @@
         <v>14881</v>
       </c>
       <c r="F22">
-        <v>16354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>17652</v>
+      </c>
+      <c r="G22">
+        <v>17652</v>
+      </c>
+      <c r="H22">
+        <v>16440</v>
+      </c>
+      <c r="I22">
+        <v>16440</v>
+      </c>
+      <c r="J22">
+        <v>17652</v>
+      </c>
+      <c r="K22">
+        <v>17514</v>
+      </c>
+      <c r="L22">
+        <v>17514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
         <v>45139</v>
@@ -874,18 +1270,36 @@
         <v>18333</v>
       </c>
       <c r="F23">
-        <v>17036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>18058</v>
+      </c>
+      <c r="G23">
+        <v>18058</v>
+      </c>
+      <c r="H23">
+        <v>17121</v>
+      </c>
+      <c r="I23">
+        <v>17121</v>
+      </c>
+      <c r="J23">
+        <v>18058</v>
+      </c>
+      <c r="K23">
+        <v>18062</v>
+      </c>
+      <c r="L23">
+        <v>18062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
         <v>45170</v>
@@ -894,18 +1308,36 @@
         <v>17544</v>
       </c>
       <c r="F24">
-        <v>17803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>18600</v>
+      </c>
+      <c r="G24">
+        <v>18600</v>
+      </c>
+      <c r="H24">
+        <v>17904</v>
+      </c>
+      <c r="I24">
+        <v>17904</v>
+      </c>
+      <c r="J24">
+        <v>18600</v>
+      </c>
+      <c r="K24">
+        <v>18602</v>
+      </c>
+      <c r="L24">
+        <v>18602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
         <v>45200</v>
@@ -914,18 +1346,36 @@
         <v>22690</v>
       </c>
       <c r="F25">
-        <v>18558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>19128</v>
+      </c>
+      <c r="G25">
+        <v>19128</v>
+      </c>
+      <c r="H25">
+        <v>18675</v>
+      </c>
+      <c r="I25">
+        <v>18675</v>
+      </c>
+      <c r="J25">
+        <v>19128</v>
+      </c>
+      <c r="K25">
+        <v>19133</v>
+      </c>
+      <c r="L25">
+        <v>19133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2">
         <v>45231</v>
@@ -934,18 +1384,36 @@
         <v>22471</v>
       </c>
       <c r="F26">
-        <v>18600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>19195</v>
+      </c>
+      <c r="G26">
+        <v>19195</v>
+      </c>
+      <c r="H26">
+        <v>18724</v>
+      </c>
+      <c r="I26">
+        <v>18724</v>
+      </c>
+      <c r="J26">
+        <v>19195</v>
+      </c>
+      <c r="K26">
+        <v>19133</v>
+      </c>
+      <c r="L26">
+        <v>19133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
         <v>45261</v>
@@ -954,18 +1422,36 @@
         <v>29360</v>
       </c>
       <c r="F27">
-        <v>19432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>19849</v>
+      </c>
+      <c r="G27">
+        <v>19849</v>
+      </c>
+      <c r="H27">
+        <v>19588</v>
+      </c>
+      <c r="I27">
+        <v>19588</v>
+      </c>
+      <c r="J27">
+        <v>19849</v>
+      </c>
+      <c r="K27">
+        <v>19657</v>
+      </c>
+      <c r="L27">
+        <v>19657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2">
         <v>45292</v>
@@ -974,18 +1460,36 @@
         <v>17639</v>
       </c>
       <c r="F28">
-        <v>19540</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>20019</v>
+      </c>
+      <c r="G28">
+        <v>20019</v>
+      </c>
+      <c r="H28">
+        <v>19714</v>
+      </c>
+      <c r="I28">
+        <v>19714</v>
+      </c>
+      <c r="J28">
+        <v>20019</v>
+      </c>
+      <c r="K28">
+        <v>19657</v>
+      </c>
+      <c r="L28">
+        <v>19657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2">
         <v>45323</v>
@@ -994,18 +1498,36 @@
         <v>19147</v>
       </c>
       <c r="F29">
-        <v>20211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>20423</v>
+      </c>
+      <c r="G29">
+        <v>20423</v>
+      </c>
+      <c r="H29">
+        <v>20393</v>
+      </c>
+      <c r="I29">
+        <v>20393</v>
+      </c>
+      <c r="J29">
+        <v>20423</v>
+      </c>
+      <c r="K29">
+        <v>20172</v>
+      </c>
+      <c r="L29">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2">
         <v>45352</v>
@@ -1014,18 +1536,36 @@
         <v>19744</v>
       </c>
       <c r="F30">
-        <v>20110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>20263</v>
+      </c>
+      <c r="G30">
+        <v>20263</v>
+      </c>
+      <c r="H30">
+        <v>20276</v>
+      </c>
+      <c r="I30">
+        <v>20276</v>
+      </c>
+      <c r="J30">
+        <v>20263</v>
+      </c>
+      <c r="K30">
+        <v>20172</v>
+      </c>
+      <c r="L30">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2">
         <v>45383</v>
@@ -1034,18 +1574,36 @@
         <v>20614</v>
       </c>
       <c r="F31">
-        <v>20824</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>20738</v>
+      </c>
+      <c r="G31">
+        <v>20738</v>
+      </c>
+      <c r="H31">
+        <v>21008</v>
+      </c>
+      <c r="I31">
+        <v>21008</v>
+      </c>
+      <c r="J31">
+        <v>20738</v>
+      </c>
+      <c r="K31">
+        <v>20679</v>
+      </c>
+      <c r="L31">
+        <v>20679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2">
         <v>45413</v>
@@ -1054,18 +1612,36 @@
         <v>20379</v>
       </c>
       <c r="F32">
-        <v>20789</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>20683</v>
+      </c>
+      <c r="G32">
+        <v>20683</v>
+      </c>
+      <c r="H32">
+        <v>20967</v>
+      </c>
+      <c r="I32">
+        <v>20967</v>
+      </c>
+      <c r="J32">
+        <v>20683</v>
+      </c>
+      <c r="K32">
+        <v>20679</v>
+      </c>
+      <c r="L32">
+        <v>20679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2">
         <v>45444</v>
@@ -1074,18 +1650,36 @@
         <v>18947</v>
       </c>
       <c r="F33">
-        <v>21529</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21202</v>
+      </c>
+      <c r="G33">
+        <v>21202</v>
+      </c>
+      <c r="H33">
+        <v>21732</v>
+      </c>
+      <c r="I33">
+        <v>21732</v>
+      </c>
+      <c r="J33">
+        <v>21202</v>
+      </c>
+      <c r="K33">
+        <v>21179</v>
+      </c>
+      <c r="L33">
+        <v>21179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2">
         <v>45474</v>
@@ -1094,21 +1688,39 @@
         <v>19593</v>
       </c>
       <c r="F34">
-        <v>21479</v>
+        <v>21124</v>
+      </c>
+      <c r="G34">
+        <v>21124</v>
       </c>
       <c r="H34">
+        <v>21675</v>
+      </c>
+      <c r="I34">
+        <v>21675</v>
+      </c>
+      <c r="J34">
+        <v>21124</v>
+      </c>
+      <c r="K34">
+        <v>21179</v>
+      </c>
+      <c r="L34">
+        <v>21179</v>
+      </c>
+      <c r="N34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2">
         <v>45505</v>
@@ -1117,18 +1729,36 @@
         <v>20155</v>
       </c>
       <c r="F35">
-        <v>22204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21624</v>
+      </c>
+      <c r="G35">
+        <v>21624</v>
+      </c>
+      <c r="H35">
+        <v>22426</v>
+      </c>
+      <c r="I35">
+        <v>22426</v>
+      </c>
+      <c r="J35">
+        <v>21624</v>
+      </c>
+      <c r="K35">
+        <v>21670</v>
+      </c>
+      <c r="L35">
+        <v>21670</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2">
         <v>45536</v>
@@ -1137,21 +1767,39 @@
         <v>19512</v>
       </c>
       <c r="F36">
-        <v>22186</v>
+        <v>21595</v>
+      </c>
+      <c r="G36">
+        <v>21595</v>
       </c>
       <c r="H36">
+        <v>22404</v>
+      </c>
+      <c r="I36">
+        <v>22404</v>
+      </c>
+      <c r="J36">
+        <v>21595</v>
+      </c>
+      <c r="K36">
+        <v>21670</v>
+      </c>
+      <c r="L36">
+        <v>21670</v>
+      </c>
+      <c r="N36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2">
         <v>45566</v>
@@ -1160,18 +1808,36 @@
         <v>24657</v>
       </c>
       <c r="F37">
-        <v>22903</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22087</v>
+      </c>
+      <c r="G37">
+        <v>22087</v>
+      </c>
+      <c r="H37">
+        <v>23149</v>
+      </c>
+      <c r="I37">
+        <v>23149</v>
+      </c>
+      <c r="J37">
+        <v>22087</v>
+      </c>
+      <c r="K37">
+        <v>22153</v>
+      </c>
+      <c r="L37">
+        <v>22153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
         <v>45597</v>
@@ -1180,656 +1846,1358 @@
         <v>13109</v>
       </c>
       <c r="F38">
-        <v>22957</v>
+        <v>22172</v>
       </c>
       <c r="G38">
+        <v>22172</v>
+      </c>
+      <c r="H38">
+        <v>23211</v>
+      </c>
+      <c r="I38">
+        <v>23211</v>
+      </c>
+      <c r="J38">
+        <v>22172</v>
+      </c>
+      <c r="K38">
+        <v>22153</v>
+      </c>
+      <c r="L38">
+        <v>22153</v>
+      </c>
+      <c r="M38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2">
         <v>45627</v>
       </c>
       <c r="F39">
-        <v>22957</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22172</v>
+      </c>
+      <c r="G39">
+        <v>22172</v>
+      </c>
+      <c r="H39">
+        <v>23211</v>
+      </c>
+      <c r="I39">
+        <v>23211</v>
+      </c>
+      <c r="J39">
+        <v>22172</v>
+      </c>
+      <c r="K39">
+        <v>22153</v>
+      </c>
+      <c r="L39">
+        <v>22153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2">
         <v>45658</v>
       </c>
       <c r="F40">
-        <v>23697</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22702</v>
+      </c>
+      <c r="G40">
+        <v>22702</v>
+      </c>
+      <c r="H40">
+        <v>23985</v>
+      </c>
+      <c r="I40">
+        <v>23985</v>
+      </c>
+      <c r="J40">
+        <v>22702</v>
+      </c>
+      <c r="K40">
+        <v>22628</v>
+      </c>
+      <c r="L40">
+        <v>22628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2">
         <v>45689</v>
       </c>
       <c r="F41">
-        <v>23701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22708</v>
+      </c>
+      <c r="G41">
+        <v>22708</v>
+      </c>
+      <c r="H41">
+        <v>23989</v>
+      </c>
+      <c r="I41">
+        <v>23989</v>
+      </c>
+      <c r="J41">
+        <v>22708</v>
+      </c>
+      <c r="K41">
+        <v>22628</v>
+      </c>
+      <c r="L41">
+        <v>22628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
         <v>45717</v>
       </c>
       <c r="F42">
-        <v>23702</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22711</v>
+      </c>
+      <c r="G42">
+        <v>22711</v>
+      </c>
+      <c r="H42">
+        <v>23991</v>
+      </c>
+      <c r="I42">
+        <v>23991</v>
+      </c>
+      <c r="J42">
+        <v>22711</v>
+      </c>
+      <c r="K42">
+        <v>22628</v>
+      </c>
+      <c r="L42">
+        <v>22628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2">
         <v>45748</v>
       </c>
       <c r="F43">
-        <v>24429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23225</v>
+      </c>
+      <c r="G43">
+        <v>23225</v>
+      </c>
+      <c r="H43">
+        <v>24752</v>
+      </c>
+      <c r="I43">
+        <v>24752</v>
+      </c>
+      <c r="J43">
+        <v>23225</v>
+      </c>
+      <c r="K43">
+        <v>23096</v>
+      </c>
+      <c r="L43">
+        <v>23096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2">
         <v>45778</v>
       </c>
       <c r="F44">
-        <v>24430</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23226</v>
+      </c>
+      <c r="G44">
+        <v>23226</v>
+      </c>
+      <c r="H44">
+        <v>24753</v>
+      </c>
+      <c r="I44">
+        <v>24753</v>
+      </c>
+      <c r="J44">
+        <v>23226</v>
+      </c>
+      <c r="K44">
+        <v>23096</v>
+      </c>
+      <c r="L44">
+        <v>23096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2">
         <v>45809</v>
       </c>
       <c r="F45">
-        <v>24430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23226</v>
+      </c>
+      <c r="G45">
+        <v>23226</v>
+      </c>
+      <c r="H45">
+        <v>24753</v>
+      </c>
+      <c r="I45">
+        <v>24753</v>
+      </c>
+      <c r="J45">
+        <v>23226</v>
+      </c>
+      <c r="K45">
+        <v>23096</v>
+      </c>
+      <c r="L45">
+        <v>23096</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2">
         <v>45839</v>
       </c>
       <c r="F46">
-        <v>25148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23731</v>
+      </c>
+      <c r="G46">
+        <v>23731</v>
+      </c>
+      <c r="H46">
+        <v>25508</v>
+      </c>
+      <c r="I46">
+        <v>25508</v>
+      </c>
+      <c r="J46">
+        <v>23731</v>
+      </c>
+      <c r="K46">
+        <v>23555</v>
+      </c>
+      <c r="L46">
+        <v>23555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2">
         <v>45870</v>
       </c>
       <c r="F47">
-        <v>25149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23732</v>
+      </c>
+      <c r="G47">
+        <v>23732</v>
+      </c>
+      <c r="H47">
+        <v>25508</v>
+      </c>
+      <c r="I47">
+        <v>25508</v>
+      </c>
+      <c r="J47">
+        <v>23732</v>
+      </c>
+      <c r="K47">
+        <v>23555</v>
+      </c>
+      <c r="L47">
+        <v>23555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2">
         <v>45901</v>
       </c>
       <c r="F48">
-        <v>25149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>23732</v>
+      </c>
+      <c r="G48">
+        <v>23732</v>
+      </c>
+      <c r="H48">
+        <v>25508</v>
+      </c>
+      <c r="I48">
+        <v>25508</v>
+      </c>
+      <c r="J48">
+        <v>23732</v>
+      </c>
+      <c r="K48">
+        <v>23555</v>
+      </c>
+      <c r="L48">
+        <v>23555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2">
         <v>45931</v>
       </c>
       <c r="F49">
-        <v>25860</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>24229</v>
+      </c>
+      <c r="G49">
+        <v>24229</v>
+      </c>
+      <c r="H49">
+        <v>26257</v>
+      </c>
+      <c r="I49">
+        <v>26257</v>
+      </c>
+      <c r="J49">
+        <v>24229</v>
+      </c>
+      <c r="K49">
+        <v>24006</v>
+      </c>
+      <c r="L49">
+        <v>24006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2">
         <v>45962</v>
       </c>
       <c r="F50">
-        <v>25860</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>24229</v>
+      </c>
+      <c r="G50">
+        <v>24229</v>
+      </c>
+      <c r="H50">
+        <v>26257</v>
+      </c>
+      <c r="I50">
+        <v>26257</v>
+      </c>
+      <c r="J50">
+        <v>24229</v>
+      </c>
+      <c r="K50">
+        <v>24006</v>
+      </c>
+      <c r="L50">
+        <v>24006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2">
         <v>45992</v>
       </c>
       <c r="F51">
-        <v>25860</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>24229</v>
+      </c>
+      <c r="G51">
+        <v>24229</v>
+      </c>
+      <c r="H51">
+        <v>26257</v>
+      </c>
+      <c r="I51">
+        <v>26257</v>
+      </c>
+      <c r="J51">
+        <v>24229</v>
+      </c>
+      <c r="K51">
+        <v>24006</v>
+      </c>
+      <c r="L51">
+        <v>24006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2">
         <v>46023</v>
       </c>
       <c r="F52">
-        <v>25860</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>24229</v>
+      </c>
+      <c r="G52">
+        <v>24229</v>
+      </c>
+      <c r="H52">
+        <v>26257</v>
+      </c>
+      <c r="I52">
+        <v>26257</v>
+      </c>
+      <c r="J52">
+        <v>24229</v>
+      </c>
+      <c r="K52">
+        <v>24006</v>
+      </c>
+      <c r="L52">
+        <v>24006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2">
         <v>46054</v>
       </c>
       <c r="F53">
-        <v>26564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>24719</v>
+      </c>
+      <c r="G53">
+        <v>24719</v>
+      </c>
+      <c r="H53">
+        <v>27000</v>
+      </c>
+      <c r="I53">
+        <v>27000</v>
+      </c>
+      <c r="J53">
+        <v>24719</v>
+      </c>
+      <c r="K53">
+        <v>24450</v>
+      </c>
+      <c r="L53">
+        <v>24450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2">
         <v>46082</v>
       </c>
       <c r="F54">
-        <v>26564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>24719</v>
+      </c>
+      <c r="G54">
+        <v>24719</v>
+      </c>
+      <c r="H54">
+        <v>27000</v>
+      </c>
+      <c r="I54">
+        <v>27000</v>
+      </c>
+      <c r="J54">
+        <v>24719</v>
+      </c>
+      <c r="K54">
+        <v>24450</v>
+      </c>
+      <c r="L54">
+        <v>24450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2">
         <v>46113</v>
       </c>
       <c r="F55">
-        <v>26564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>24719</v>
+      </c>
+      <c r="G55">
+        <v>24719</v>
+      </c>
+      <c r="H55">
+        <v>27000</v>
+      </c>
+      <c r="I55">
+        <v>27000</v>
+      </c>
+      <c r="J55">
+        <v>24719</v>
+      </c>
+      <c r="K55">
+        <v>24450</v>
+      </c>
+      <c r="L55">
+        <v>24450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2">
         <v>46143</v>
       </c>
       <c r="F56">
-        <v>26564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>24719</v>
+      </c>
+      <c r="G56">
+        <v>24719</v>
+      </c>
+      <c r="H56">
+        <v>27000</v>
+      </c>
+      <c r="I56">
+        <v>27000</v>
+      </c>
+      <c r="J56">
+        <v>24719</v>
+      </c>
+      <c r="K56">
+        <v>24450</v>
+      </c>
+      <c r="L56">
+        <v>24450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2">
         <v>46174</v>
       </c>
       <c r="F57">
-        <v>27262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>25202</v>
+      </c>
+      <c r="G57">
+        <v>25202</v>
+      </c>
+      <c r="H57">
+        <v>27738</v>
+      </c>
+      <c r="I57">
+        <v>27738</v>
+      </c>
+      <c r="J57">
+        <v>25202</v>
+      </c>
+      <c r="K57">
+        <v>24885</v>
+      </c>
+      <c r="L57">
+        <v>24885</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2">
         <v>46204</v>
       </c>
       <c r="F58">
-        <v>27262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>25202</v>
+      </c>
+      <c r="G58">
+        <v>25202</v>
+      </c>
+      <c r="H58">
+        <v>27738</v>
+      </c>
+      <c r="I58">
+        <v>27738</v>
+      </c>
+      <c r="J58">
+        <v>25202</v>
+      </c>
+      <c r="K58">
+        <v>24885</v>
+      </c>
+      <c r="L58">
+        <v>24885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2">
         <v>46235</v>
       </c>
       <c r="F59">
-        <v>27262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>25202</v>
+      </c>
+      <c r="G59">
+        <v>25202</v>
+      </c>
+      <c r="H59">
+        <v>27738</v>
+      </c>
+      <c r="I59">
+        <v>27738</v>
+      </c>
+      <c r="J59">
+        <v>25202</v>
+      </c>
+      <c r="K59">
+        <v>24885</v>
+      </c>
+      <c r="L59">
+        <v>24885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2">
         <v>46266</v>
       </c>
       <c r="F60">
-        <v>27262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>25202</v>
+      </c>
+      <c r="G60">
+        <v>25202</v>
+      </c>
+      <c r="H60">
+        <v>27738</v>
+      </c>
+      <c r="I60">
+        <v>27738</v>
+      </c>
+      <c r="J60">
+        <v>25202</v>
+      </c>
+      <c r="K60">
+        <v>24885</v>
+      </c>
+      <c r="L60">
+        <v>24885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2">
         <v>46296</v>
       </c>
       <c r="F61">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>25677</v>
+      </c>
+      <c r="G61">
+        <v>25677</v>
+      </c>
+      <c r="H61">
+        <v>28470</v>
+      </c>
+      <c r="I61">
+        <v>28470</v>
+      </c>
+      <c r="J61">
+        <v>25677</v>
+      </c>
+      <c r="K61">
+        <v>25313</v>
+      </c>
+      <c r="L61">
+        <v>25313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2">
         <v>46327</v>
       </c>
       <c r="F62">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>25677</v>
+      </c>
+      <c r="G62">
+        <v>25677</v>
+      </c>
+      <c r="H62">
+        <v>28470</v>
+      </c>
+      <c r="I62">
+        <v>28470</v>
+      </c>
+      <c r="J62">
+        <v>25677</v>
+      </c>
+      <c r="K62">
+        <v>25313</v>
+      </c>
+      <c r="L62">
+        <v>25313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2">
         <v>46357</v>
       </c>
       <c r="F63">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>25677</v>
+      </c>
+      <c r="G63">
+        <v>25677</v>
+      </c>
+      <c r="H63">
+        <v>28470</v>
+      </c>
+      <c r="I63">
+        <v>28470</v>
+      </c>
+      <c r="J63">
+        <v>25677</v>
+      </c>
+      <c r="K63">
+        <v>25313</v>
+      </c>
+      <c r="L63">
+        <v>25313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2">
         <v>46388</v>
       </c>
       <c r="F64">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>25677</v>
+      </c>
+      <c r="G64">
+        <v>25677</v>
+      </c>
+      <c r="H64">
+        <v>28470</v>
+      </c>
+      <c r="I64">
+        <v>28470</v>
+      </c>
+      <c r="J64">
+        <v>25677</v>
+      </c>
+      <c r="K64">
+        <v>25313</v>
+      </c>
+      <c r="L64">
+        <v>25313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2">
         <v>46419</v>
       </c>
       <c r="F65">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>25677</v>
+      </c>
+      <c r="G65">
+        <v>25677</v>
+      </c>
+      <c r="H65">
+        <v>28470</v>
+      </c>
+      <c r="I65">
+        <v>28470</v>
+      </c>
+      <c r="J65">
+        <v>25677</v>
+      </c>
+      <c r="K65">
+        <v>25313</v>
+      </c>
+      <c r="L65">
+        <v>25313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2">
         <v>46447</v>
       </c>
       <c r="F66">
-        <v>27952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>25677</v>
+      </c>
+      <c r="G66">
+        <v>25677</v>
+      </c>
+      <c r="H66">
+        <v>28470</v>
+      </c>
+      <c r="I66">
+        <v>28470</v>
+      </c>
+      <c r="J66">
+        <v>25677</v>
+      </c>
+      <c r="K66">
+        <v>25313</v>
+      </c>
+      <c r="L66">
+        <v>25313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2">
         <v>46478</v>
       </c>
       <c r="F67">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>26145</v>
+      </c>
+      <c r="G67">
+        <v>26145</v>
+      </c>
+      <c r="H67">
+        <v>29198</v>
+      </c>
+      <c r="I67">
+        <v>29198</v>
+      </c>
+      <c r="J67">
+        <v>26145</v>
+      </c>
+      <c r="K67">
+        <v>25733</v>
+      </c>
+      <c r="L67">
+        <v>25733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2">
         <v>46508</v>
       </c>
       <c r="F68">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>26145</v>
+      </c>
+      <c r="G68">
+        <v>26145</v>
+      </c>
+      <c r="H68">
+        <v>29198</v>
+      </c>
+      <c r="I68">
+        <v>29198</v>
+      </c>
+      <c r="J68">
+        <v>26145</v>
+      </c>
+      <c r="K68">
+        <v>25733</v>
+      </c>
+      <c r="L68">
+        <v>25733</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2">
         <v>46539</v>
       </c>
       <c r="F69">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>26145</v>
+      </c>
+      <c r="G69">
+        <v>26145</v>
+      </c>
+      <c r="H69">
+        <v>29198</v>
+      </c>
+      <c r="I69">
+        <v>29198</v>
+      </c>
+      <c r="J69">
+        <v>26145</v>
+      </c>
+      <c r="K69">
+        <v>25733</v>
+      </c>
+      <c r="L69">
+        <v>25733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2">
         <v>46569</v>
       </c>
       <c r="F70">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>26145</v>
+      </c>
+      <c r="G70">
+        <v>26145</v>
+      </c>
+      <c r="H70">
+        <v>29198</v>
+      </c>
+      <c r="I70">
+        <v>29198</v>
+      </c>
+      <c r="J70">
+        <v>26145</v>
+      </c>
+      <c r="K70">
+        <v>25733</v>
+      </c>
+      <c r="L70">
+        <v>25733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2">
         <v>46600</v>
       </c>
       <c r="F71">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>26145</v>
+      </c>
+      <c r="G71">
+        <v>26145</v>
+      </c>
+      <c r="H71">
+        <v>29198</v>
+      </c>
+      <c r="I71">
+        <v>29198</v>
+      </c>
+      <c r="J71">
+        <v>26145</v>
+      </c>
+      <c r="K71">
+        <v>25733</v>
+      </c>
+      <c r="L71">
+        <v>25733</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2">
         <v>46631</v>
       </c>
       <c r="F72">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>26145</v>
+      </c>
+      <c r="G72">
+        <v>26145</v>
+      </c>
+      <c r="H72">
+        <v>29198</v>
+      </c>
+      <c r="I72">
+        <v>29198</v>
+      </c>
+      <c r="J72">
+        <v>26145</v>
+      </c>
+      <c r="K72">
+        <v>25733</v>
+      </c>
+      <c r="L72">
+        <v>25733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2">
         <v>46661</v>
       </c>
       <c r="F73">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>26145</v>
+      </c>
+      <c r="G73">
+        <v>26145</v>
+      </c>
+      <c r="H73">
+        <v>29198</v>
+      </c>
+      <c r="I73">
+        <v>29198</v>
+      </c>
+      <c r="J73">
+        <v>26145</v>
+      </c>
+      <c r="K73">
+        <v>25733</v>
+      </c>
+      <c r="L73">
+        <v>25733</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2">
         <v>46692</v>
       </c>
       <c r="F74">
-        <v>28635</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>26145</v>
+      </c>
+      <c r="G74">
+        <v>26145</v>
+      </c>
+      <c r="H74">
+        <v>29198</v>
+      </c>
+      <c r="I74">
+        <v>29198</v>
+      </c>
+      <c r="J74">
+        <v>26145</v>
+      </c>
+      <c r="K74">
+        <v>25733</v>
+      </c>
+      <c r="L74">
+        <v>25733</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2">
         <v>46722</v>
       </c>
       <c r="F75">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>11542</v>
+      </c>
+      <c r="G75">
+        <v>11542</v>
+      </c>
+      <c r="H75">
+        <v>8498</v>
+      </c>
+      <c r="I75">
+        <v>8498</v>
+      </c>
+      <c r="J75">
+        <v>11542</v>
+      </c>
+      <c r="K75">
+        <v>12230</v>
+      </c>
+      <c r="L75">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2">
         <v>46753</v>
       </c>
       <c r="F76">
-        <v>8549</v>
+        <v>11542</v>
+      </c>
+      <c r="G76">
+        <v>11542</v>
+      </c>
+      <c r="H76">
+        <v>8498</v>
+      </c>
+      <c r="I76">
+        <v>8498</v>
+      </c>
+      <c r="J76">
+        <v>11542</v>
+      </c>
+      <c r="K76">
+        <v>12230</v>
+      </c>
+      <c r="L76">
+        <v>12230</v>
       </c>
     </row>
   </sheetData>
